--- a/trunk/03. Source code/BKI_QLHT/bin/Debug/Reports/Templates/f408_bao_cao_danh_muc_thuoc_theo_nhom_thuoc.xlsx
+++ b/trunk/03. Source code/BKI_QLHT/bin/Debug/Reports/Templates/f408_bao_cao_danh_muc_thuoc_theo_nhom_thuoc.xlsx
@@ -26,11 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Nhà thuốc ABC
-Địa chỉ: Ngõ 123, Kim Ngưu
-Số điện thoại: 01234567</t>
-  </si>
-  <si>
     <t>Người xuất báo cáo</t>
   </si>
   <si>
@@ -62,6 +57,11 @@
   </si>
   <si>
     <t>&lt;ngay_xuat_bao_cao&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ten_don_vi&gt;
+Địa chỉ: &lt;dia_chi&gt;
+Số điện thoại: &lt;so_dien_thoai&gt;</t>
   </si>
 </sst>
 </file>
@@ -208,32 +208,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,7 +519,7 @@
   <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,12 +533,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -548,17 +548,17 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -569,78 +569,78 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="C6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>9</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="10">
         <v>4</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="10">
         <v>5</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <v>6</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="10">
         <v>7</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="10">
         <v>8</v>
       </c>
     </row>
